--- a/Nguyễn Quốc Khánh_11CNPM1_Lab3_KiemThuPhanMem.xlsx
+++ b/Nguyễn Quốc Khánh_11CNPM1_Lab3_KiemThuPhanMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NguyenQuocKhanh\tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D423E0C-FB41-4365-B64D-098BEF660472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83188CDF-1F31-47A1-959B-0E4AFFCFA3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4D02A94B-1051-4248-9CA4-1909D055BF79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{4D02A94B-1051-4248-9CA4-1909D055BF79}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="154">
   <si>
     <t>Bài 1: Kiểm thử trường nhập điểm thi (0-100)</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Phân tích:</t>
   </si>
   <si>
-    <t>Các giá trị biên cần kiểm thử (dựa trên kỹ thuật biên mạnh): -1, 0, 1, 50, 99, 100, 101.</t>
-  </si>
-  <si>
     <t>TC01</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Bài 2: Kiểm thử trường nhập số lượng sản phẩm (1 - 1000)</t>
   </si>
   <si>
-    <t>Giá trị biên: 0, 1, 2, 500, 999, 1000, 1001.</t>
-  </si>
-  <si>
     <t>Bài 3: Kiểm thử độ dài Tên đăng nhập &amp; Mật khẩu (1 - 255 ký tự)</t>
   </si>
   <si>
@@ -124,12 +118,6 @@
   </si>
   <si>
     <t>Phạm vi độ dài; 1 &lt;= Length &lt;= 255</t>
-  </si>
-  <si>
-    <t>Phạm vi: 0 &lt;= Điểm &lt;= 100</t>
-  </si>
-  <si>
-    <t>Phạm vi: 1 &lt;= Số lượng &lt;= 1000</t>
   </si>
   <si>
     <t>ID</t>
@@ -381,6 +369,162 @@
   </si>
   <si>
     <t>Giá trị biên: Username: 6, 7, 19, 20, Password: 6, 7, 24, 25</t>
+  </si>
+  <si>
+    <t>Phạm vi đầu vào: 0-5: Miễn phí, 6-19: 80k, 20-60: 100k, 61-120: 80k</t>
+  </si>
+  <si>
+    <t>Giá trị biên: 0, 5, 6, 19, 20, 60, 61, 120</t>
+  </si>
+  <si>
+    <t>Lỗi: Tuổi không hợp lệ</t>
+  </si>
+  <si>
+    <t>Miễn phí</t>
+  </si>
+  <si>
+    <t>Biên - Vùng 1</t>
+  </si>
+  <si>
+    <t>Thường - Vùng 1</t>
+  </si>
+  <si>
+    <t>80,000 đồng</t>
+  </si>
+  <si>
+    <t>Biên - Vùng 2</t>
+  </si>
+  <si>
+    <t>Thường - Vùng 2</t>
+  </si>
+  <si>
+    <t>100,000 đồng</t>
+  </si>
+  <si>
+    <t>Biên - Vùng 3</t>
+  </si>
+  <si>
+    <t>Thường - Vùng 3</t>
+  </si>
+  <si>
+    <t>Biên - Vùng 4</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Thường - Vùng 4</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Bài 7: Lazada Sale - Coupon theo ngày (20-30)</t>
+  </si>
+  <si>
+    <t>Phạm vi đầu vào: 20-25: 50% off, 26-30: 70% off</t>
+  </si>
+  <si>
+    <t>Giá trị biên: 19, 20, 25, 26, 30, 31</t>
+  </si>
+  <si>
+    <t>Lỗi: Ngày ngoài phạm vi (20-30)</t>
+  </si>
+  <si>
+    <t>Coupon giảm 50%</t>
+  </si>
+  <si>
+    <t>Coupon giảm 70%</t>
+  </si>
+  <si>
+    <t>Lỗi: Ngày không hợp lệ</t>
+  </si>
+  <si>
+    <t>Bài 4: Kiểm thử nhập tháng (1-12)</t>
+  </si>
+  <si>
+    <t>Bài 6: Giá vé xe buýt theo độ tuổi</t>
+  </si>
+  <si>
+    <t>Bài 5: Đăng nhập (Username: 6-20, Password: 6-25, Lock sau 5 lần)</t>
+  </si>
+  <si>
+    <t>Bài 8: Form Login (Username: 3-30, Password: 6-10)</t>
+  </si>
+  <si>
+    <t>Phạm vi đầu vào: Username: 3-30 ký tự, Password: 6-10 ký tự</t>
+  </si>
+  <si>
+    <t>Giá trị biên: Username: 3, 4, 29, 30, Password: 6, 7, 9, 10</t>
+  </si>
+  <si>
+    <t>Phạm vi đầu vào: 0 đến 100</t>
+  </si>
+  <si>
+    <t>Giá trị biên: 0 (Xmin), 1 (Xmin+1), 100 (Xmax), 99 (Xmax-1), 50 (giữa)</t>
+  </si>
+  <si>
+    <t>Phạm vi đầu vào: 1 đến 1000</t>
+  </si>
+  <si>
+    <t>Giá trị biên: 1 (Xmin), 2 (Xmin+1), 1000 (Xmax), 999 (Xmax-1), 500 (giữa)</t>
+  </si>
+  <si>
+    <t>Lỗi: Username không được để trống</t>
+  </si>
+  <si>
+    <t>User: 'ab' (2), Pass: 'pass123'</t>
+  </si>
+  <si>
+    <t>Lỗi: Độ dài Username phải từ 3-30</t>
+  </si>
+  <si>
+    <t>User: 'abc' (3), Pass: '12345' (5)</t>
+  </si>
+  <si>
+    <t>Lỗi: Độ dài Password phải từ 6-10</t>
+  </si>
+  <si>
+    <t>User: 'abc' (3), Pass: '123456' (6)</t>
+  </si>
+  <si>
+    <t>Hợp lệ nếu đúng hoặc sai thông tin</t>
+  </si>
+  <si>
+    <t>User: 'abcd' (4), Pass: '1234567' (7)</t>
+  </si>
+  <si>
+    <t>User: 'user' (4), Pass: 'password' (8)</t>
+  </si>
+  <si>
+    <t>User: 29 ký tự, Pass: 9 ký tự</t>
+  </si>
+  <si>
+    <t>User: 30 ký tự, Pass: 10 ký tự</t>
+  </si>
+  <si>
+    <t>User: 31 ký tự, Pass: 11 ký tự</t>
+  </si>
+  <si>
+    <t>Lỗi: Vượt quá độ dài</t>
+  </si>
+  <si>
+    <t>User: 'admin', Pass: 'sai_mk'</t>
+  </si>
+  <si>
+    <t>Lỗi: Username hoặc Password sai</t>
+  </si>
+  <si>
+    <t>User: 'dung_user', Pass: 'dung_mk'</t>
+  </si>
+  <si>
+    <t>Chuyển vào màn hình chính</t>
+  </si>
+  <si>
+    <t>Thành công</t>
   </si>
 </sst>
 </file>
@@ -440,12 +584,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9FAFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -475,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -500,6 +650,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,7 +993,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,183 +1011,181 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6">
         <v>-1</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="6">
         <v>99</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
         <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6">
         <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1044,12 +1198,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
@@ -1059,186 +1213,184 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>500</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <v>999</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
         <v>1000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6">
         <v>1001</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6">
         <v>-5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1266,40 +1418,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1307,145 +1459,145 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1457,9 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6F8975-9BB5-4A9E-AEA7-77FD6E8A1EE9}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1472,180 +1622,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>102</v>
+      <c r="A1" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6">
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6">
         <v>-1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1657,13 +1810,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB446236-4DF4-41CF-ADBE-DE2CC3C0279E}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -1672,214 +1825,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>104</v>
+      <c r="A1" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1889,36 +2045,727 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82287FF4-75F7-4687-B0D8-F4866C900BC5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6">
+        <v>61</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="6">
+        <v>90</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="6">
+        <v>120</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="6">
+        <v>121</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAB3FAA-FE30-4E74-BE83-EE9014B96D44}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593295E3-58CF-44A6-B260-55E8C662E744}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>